--- a/pubmed_validation_sheets/10584420 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/10584420 DISNET VALIDATION.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5FF2D37B-3352-8345-9EF0-8855B80708FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE61B3F-5D35-B149-BA10-BA94C0ECC619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38580" yWindow="460" windowWidth="16440" windowHeight="16940" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -871,7 +879,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1573,6 +1581,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{2DD31CA4-F168-CA4A-8AD3-10F4D19D6109}">
+    <sortState ref="A4:I23">
+      <sortCondition ref="A3:A23"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
